--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Lumber_Price_Per_Hundred_Pounds_WPS0811.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Lumber_Price_Per_Hundred_Pounds_WPS0811.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="941">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1975-01-01</t>
@@ -1705,6 +1705,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>57.1</t>
   </si>
   <si>
@@ -2605,160 +2644,199 @@
     <t>207.5</t>
   </si>
   <si>
-    <t>208.9</t>
-  </si>
-  <si>
-    <t>213.5</t>
-  </si>
-  <si>
-    <t>213.8</t>
-  </si>
-  <si>
-    <t>222.2</t>
-  </si>
-  <si>
-    <t>222.8</t>
-  </si>
-  <si>
-    <t>219.8</t>
-  </si>
-  <si>
-    <t>221.1</t>
-  </si>
-  <si>
-    <t>225.8</t>
-  </si>
-  <si>
-    <t>236.2</t>
-  </si>
-  <si>
-    <t>238.1</t>
-  </si>
-  <si>
-    <t>237.4</t>
-  </si>
-  <si>
-    <t>239.2</t>
-  </si>
-  <si>
-    <t>249.8</t>
-  </si>
-  <si>
-    <t>251.3</t>
-  </si>
-  <si>
-    <t>247.4</t>
-  </si>
-  <si>
-    <t>259.7</t>
-  </si>
-  <si>
-    <t>271.3</t>
-  </si>
-  <si>
-    <t>263.5</t>
-  </si>
-  <si>
-    <t>237.5</t>
-  </si>
-  <si>
-    <t>236.1</t>
-  </si>
-  <si>
-    <t>216.8</t>
-  </si>
-  <si>
-    <t>212.0</t>
-  </si>
-  <si>
-    <t>215.5</t>
+    <t>205.9</t>
+  </si>
+  <si>
+    <t>223.8</t>
+  </si>
+  <si>
+    <t>221.7</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>226.6</t>
+  </si>
+  <si>
+    <t>227.7</t>
+  </si>
+  <si>
+    <t>230.3</t>
+  </si>
+  <si>
+    <t>236.8</t>
+  </si>
+  <si>
+    <t>238.8</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>235.8</t>
+  </si>
+  <si>
+    <t>245.9</t>
+  </si>
+  <si>
+    <t>247.2</t>
+  </si>
+  <si>
+    <t>249.1</t>
+  </si>
+  <si>
+    <t>258.4</t>
+  </si>
+  <si>
+    <t>274.0</t>
+  </si>
+  <si>
+    <t>270.2</t>
+  </si>
+  <si>
+    <t>239.4</t>
+  </si>
+  <si>
+    <t>240.8</t>
+  </si>
+  <si>
+    <t>217.4</t>
+  </si>
+  <si>
+    <t>212.6</t>
+  </si>
+  <si>
+    <t>210.8</t>
+  </si>
+  <si>
+    <t>211.2</t>
+  </si>
+  <si>
+    <t>216.4</t>
+  </si>
+  <si>
+    <t>210.5</t>
+  </si>
+  <si>
+    <t>213.3</t>
+  </si>
+  <si>
+    <t>208.5</t>
+  </si>
+  <si>
+    <t>207.1</t>
+  </si>
+  <si>
+    <t>217.8</t>
   </si>
   <si>
     <t>214.1</t>
   </si>
   <si>
-    <t>219.7</t>
-  </si>
-  <si>
-    <t>211.8</t>
-  </si>
-  <si>
-    <t>209.5</t>
-  </si>
-  <si>
-    <t>205.2</t>
-  </si>
-  <si>
-    <t>212.6</t>
-  </si>
-  <si>
-    <t>212.4</t>
-  </si>
-  <si>
-    <t>218.2</t>
-  </si>
-  <si>
-    <t>219.4</t>
-  </si>
-  <si>
     <t>222.5</t>
   </si>
   <si>
-    <t>226.4</t>
-  </si>
-  <si>
-    <t>226.8</t>
-  </si>
-  <si>
-    <t>230.2</t>
-  </si>
-  <si>
-    <t>237.7</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>217.8</t>
-  </si>
-  <si>
-    <t>243.8</t>
-  </si>
-  <si>
-    <t>268.8</t>
-  </si>
-  <si>
-    <t>312.1</t>
-  </si>
-  <si>
-    <t>395.9</t>
-  </si>
-  <si>
-    <t>369.0</t>
-  </si>
-  <si>
-    <t>305.7</t>
-  </si>
-  <si>
-    <t>349.5</t>
-  </si>
-  <si>
-    <t>407.6</t>
-  </si>
-  <si>
-    <t>413.6</t>
-  </si>
-  <si>
-    <t>435.5</t>
-  </si>
-  <si>
-    <t>464.0</t>
-  </si>
-  <si>
-    <t>553.2</t>
-  </si>
-  <si>
-    <t>549.2</t>
+    <t>220.1</t>
+  </si>
+  <si>
+    <t>223.1</t>
+  </si>
+  <si>
+    <t>221.5</t>
+  </si>
+  <si>
+    <t>223.6</t>
+  </si>
+  <si>
+    <t>226.7</t>
+  </si>
+  <si>
+    <t>233.9</t>
+  </si>
+  <si>
+    <t>211.4</t>
+  </si>
+  <si>
+    <t>216.7</t>
+  </si>
+  <si>
+    <t>246.1</t>
+  </si>
+  <si>
+    <t>275.6</t>
+  </si>
+  <si>
+    <t>314.7</t>
+  </si>
+  <si>
+    <t>404.2</t>
+  </si>
+  <si>
+    <t>370.1</t>
+  </si>
+  <si>
+    <t>306.6</t>
+  </si>
+  <si>
+    <t>341.6</t>
+  </si>
+  <si>
+    <t>401.5</t>
+  </si>
+  <si>
+    <t>407.1</t>
+  </si>
+  <si>
+    <t>429.1</t>
+  </si>
+  <si>
+    <t>470.2</t>
+  </si>
+  <si>
+    <t>565.6</t>
+  </si>
+  <si>
+    <t>551.7</t>
+  </si>
+  <si>
+    <t>375.791</t>
+  </si>
+  <si>
+    <t>285.254</t>
+  </si>
+  <si>
+    <t>277.061</t>
+  </si>
+  <si>
+    <t>295.487</t>
+  </si>
+  <si>
+    <t>316.018</t>
+  </si>
+  <si>
+    <t>385.842</t>
+  </si>
+  <si>
+    <t>486.106</t>
+  </si>
+  <si>
+    <t>497.857</t>
+  </si>
+  <si>
+    <t>525.428</t>
+  </si>
+  <si>
+    <t>441.782</t>
+  </si>
+  <si>
+    <t>441.373</t>
+  </si>
+  <si>
+    <t>341.500</t>
+  </si>
+  <si>
+    <t>349.200</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E559"/>
+  <dimension ref="A1:E572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3153,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3170,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3187,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3204,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3221,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3238,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3255,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3272,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3289,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3306,7 +3384,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3323,7 +3401,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3340,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3357,7 +3435,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3374,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3391,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3408,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3425,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3442,7 +3520,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3459,7 +3537,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3476,7 +3554,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3493,7 +3571,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3510,7 +3588,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3527,7 +3605,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3544,7 +3622,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3561,7 +3639,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3578,7 +3656,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3595,7 +3673,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3612,7 +3690,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3629,7 +3707,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3646,7 +3724,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3663,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3680,7 +3758,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3697,7 +3775,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3714,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3731,7 +3809,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3748,7 +3826,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3765,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3782,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3799,7 +3877,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3816,7 +3894,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3833,7 +3911,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3850,7 +3928,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3867,7 +3945,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3884,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3901,7 +3979,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3918,7 +3996,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3935,7 +4013,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3952,7 +4030,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3969,7 +4047,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3986,7 +4064,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4003,7 +4081,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4020,7 +4098,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4037,7 +4115,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4054,7 +4132,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4071,7 +4149,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4088,7 +4166,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4105,7 +4183,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4122,7 +4200,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4139,7 +4217,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4156,7 +4234,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4173,7 +4251,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4190,7 +4268,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4207,7 +4285,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4224,7 +4302,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4241,7 +4319,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4258,7 +4336,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4275,7 +4353,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4292,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4309,7 +4387,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4326,7 +4404,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4343,7 +4421,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4360,7 +4438,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4377,7 +4455,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4394,7 +4472,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4411,7 +4489,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4428,7 +4506,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4445,7 +4523,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4462,7 +4540,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4479,7 +4557,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4496,7 +4574,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4513,7 +4591,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4530,7 +4608,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4547,7 +4625,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4564,7 +4642,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4581,7 +4659,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4598,7 +4676,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4615,7 +4693,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4632,7 +4710,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4649,7 +4727,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4666,7 +4744,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4683,7 +4761,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4700,7 +4778,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4717,7 +4795,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4734,7 +4812,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4751,7 +4829,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4768,7 +4846,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4785,7 +4863,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4802,7 +4880,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4819,7 +4897,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4836,7 +4914,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4853,7 +4931,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4870,7 +4948,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4887,7 +4965,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4904,7 +4982,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4921,7 +4999,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4938,7 +5016,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4955,7 +5033,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4972,7 +5050,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4989,7 +5067,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5006,7 +5084,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5023,7 +5101,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5040,7 +5118,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5057,7 +5135,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5074,7 +5152,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5091,7 +5169,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5108,7 +5186,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5125,7 +5203,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5142,7 +5220,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5159,7 +5237,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5176,7 +5254,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5193,7 +5271,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5210,7 +5288,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5227,7 +5305,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5244,7 +5322,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5261,7 +5339,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5278,7 +5356,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5295,7 +5373,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5312,7 +5390,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5329,7 +5407,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5346,7 +5424,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5363,7 +5441,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5380,7 +5458,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5397,7 +5475,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5414,7 +5492,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5431,7 +5509,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5448,7 +5526,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5465,7 +5543,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5482,7 +5560,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5499,7 +5577,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5516,7 +5594,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5533,7 +5611,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5550,7 +5628,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5567,7 +5645,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5584,7 +5662,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5601,7 +5679,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5618,7 +5696,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5635,7 +5713,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5652,7 +5730,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5669,7 +5747,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5686,7 +5764,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5703,7 +5781,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5720,7 +5798,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5737,7 +5815,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5754,7 +5832,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5771,7 +5849,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5788,7 +5866,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5805,7 +5883,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5822,7 +5900,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5839,7 +5917,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5856,7 +5934,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5873,7 +5951,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5890,7 +5968,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5907,7 +5985,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5924,7 +6002,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5941,7 +6019,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5958,7 +6036,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5975,7 +6053,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5992,7 +6070,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6009,7 +6087,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6026,7 +6104,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6043,7 +6121,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6060,7 +6138,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6077,7 +6155,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6094,7 +6172,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6111,7 +6189,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6128,7 +6206,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6145,7 +6223,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6162,7 +6240,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6179,7 +6257,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6196,7 +6274,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6213,7 +6291,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6230,7 +6308,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6247,7 +6325,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6264,7 +6342,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6281,7 +6359,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6298,7 +6376,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6315,7 +6393,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6332,7 +6410,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6349,7 +6427,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6366,7 +6444,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6383,7 +6461,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6400,7 +6478,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6417,7 +6495,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6434,7 +6512,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6451,7 +6529,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6468,7 +6546,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6485,7 +6563,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6502,7 +6580,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6519,7 +6597,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6536,7 +6614,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6553,7 +6631,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6570,7 +6648,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6587,7 +6665,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6604,7 +6682,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6621,7 +6699,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6638,7 +6716,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6655,7 +6733,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6672,7 +6750,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6689,7 +6767,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6706,7 +6784,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6723,7 +6801,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6740,7 +6818,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6757,7 +6835,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6774,7 +6852,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6791,7 +6869,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6808,7 +6886,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6825,7 +6903,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6842,7 +6920,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6859,7 +6937,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6876,7 +6954,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6893,7 +6971,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6910,7 +6988,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6927,7 +7005,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6944,7 +7022,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6961,7 +7039,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6978,7 +7056,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6995,7 +7073,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7012,7 +7090,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7029,7 +7107,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7046,7 +7124,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7063,7 +7141,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7080,7 +7158,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7097,7 +7175,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7114,7 +7192,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7131,7 +7209,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7148,7 +7226,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7165,7 +7243,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7182,7 +7260,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7199,7 +7277,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7216,7 +7294,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7233,7 +7311,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7250,7 +7328,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7267,7 +7345,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7284,7 +7362,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7301,7 +7379,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7318,7 +7396,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7335,7 +7413,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7352,7 +7430,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7369,7 +7447,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7386,7 +7464,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7403,7 +7481,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7420,7 +7498,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7437,7 +7515,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7454,7 +7532,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7471,7 +7549,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7488,7 +7566,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7505,7 +7583,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7522,7 +7600,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7539,7 +7617,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7556,7 +7634,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7573,7 +7651,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7590,7 +7668,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7607,7 +7685,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7624,7 +7702,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7641,7 +7719,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7658,7 +7736,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7675,7 +7753,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7692,7 +7770,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7709,7 +7787,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7726,7 +7804,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7743,7 +7821,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7760,7 +7838,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7777,7 +7855,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7794,7 +7872,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7811,7 +7889,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7828,7 +7906,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7845,7 +7923,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7862,7 +7940,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7879,7 +7957,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7896,7 +7974,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7913,7 +7991,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7930,7 +8008,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7947,7 +8025,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7964,7 +8042,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7981,7 +8059,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7998,7 +8076,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8015,7 +8093,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8032,7 +8110,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8049,7 +8127,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8066,7 +8144,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8083,7 +8161,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8100,7 +8178,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8117,7 +8195,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8134,7 +8212,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8151,7 +8229,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8168,7 +8246,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8185,7 +8263,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8202,7 +8280,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8219,7 +8297,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8236,7 +8314,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8253,7 +8331,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8270,7 +8348,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8287,7 +8365,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8304,7 +8382,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8321,7 +8399,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8338,7 +8416,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8355,7 +8433,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8372,7 +8450,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8389,7 +8467,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8406,7 +8484,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8423,7 +8501,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8440,7 +8518,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8457,7 +8535,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8474,7 +8552,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8491,7 +8569,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8508,7 +8586,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8525,7 +8603,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8542,7 +8620,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8559,7 +8637,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8576,7 +8654,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8593,7 +8671,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8610,7 +8688,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8627,7 +8705,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8644,7 +8722,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8661,7 +8739,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8678,7 +8756,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8695,7 +8773,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8712,7 +8790,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8729,7 +8807,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8746,7 +8824,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8763,7 +8841,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8780,7 +8858,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8797,7 +8875,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8814,7 +8892,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8831,7 +8909,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8848,7 +8926,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8865,7 +8943,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8882,7 +8960,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8899,7 +8977,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8916,7 +8994,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8933,7 +9011,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8950,7 +9028,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8967,7 +9045,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8984,7 +9062,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9001,7 +9079,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9018,7 +9096,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9035,7 +9113,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9052,7 +9130,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9069,7 +9147,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9086,7 +9164,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9103,7 +9181,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9120,7 +9198,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9137,7 +9215,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9154,7 +9232,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9171,7 +9249,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9188,7 +9266,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9205,7 +9283,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9222,7 +9300,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9239,7 +9317,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9256,7 +9334,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9273,7 +9351,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9290,7 +9368,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9307,7 +9385,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9324,7 +9402,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9341,7 +9419,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9358,7 +9436,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9375,7 +9453,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9392,7 +9470,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9409,7 +9487,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9426,7 +9504,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9443,7 +9521,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9460,7 +9538,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9477,7 +9555,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9494,7 +9572,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9511,7 +9589,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9528,7 +9606,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9545,7 +9623,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9562,7 +9640,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9579,7 +9657,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9596,7 +9674,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9613,7 +9691,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9630,7 +9708,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9647,7 +9725,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9664,7 +9742,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9681,7 +9759,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9698,7 +9776,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9715,7 +9793,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9732,7 +9810,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9749,7 +9827,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9766,7 +9844,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9783,7 +9861,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9800,7 +9878,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9817,7 +9895,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9834,7 +9912,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9851,7 +9929,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9868,7 +9946,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9885,7 +9963,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9902,7 +9980,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9919,7 +9997,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9936,7 +10014,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9953,7 +10031,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9970,7 +10048,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9987,7 +10065,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10004,7 +10082,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10021,7 +10099,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10038,7 +10116,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10055,7 +10133,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10072,7 +10150,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10089,7 +10167,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10106,7 +10184,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10123,7 +10201,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10140,7 +10218,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10157,7 +10235,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10174,7 +10252,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10191,7 +10269,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10208,7 +10286,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10225,7 +10303,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10242,7 +10320,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10259,7 +10337,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10276,7 +10354,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10293,7 +10371,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10310,7 +10388,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10327,7 +10405,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10344,7 +10422,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10361,7 +10439,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10378,7 +10456,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10395,7 +10473,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10412,7 +10490,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10429,7 +10507,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10446,7 +10524,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10463,7 +10541,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10480,7 +10558,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10497,7 +10575,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10514,7 +10592,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10531,7 +10609,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10548,7 +10626,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10565,7 +10643,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10582,7 +10660,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10599,7 +10677,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10616,7 +10694,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10633,7 +10711,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10650,7 +10728,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10667,7 +10745,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10684,7 +10762,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10701,7 +10779,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10718,7 +10796,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10735,7 +10813,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10752,7 +10830,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10769,7 +10847,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10786,7 +10864,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10803,7 +10881,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10820,7 +10898,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10837,7 +10915,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10854,7 +10932,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10871,7 +10949,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10888,7 +10966,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10905,7 +10983,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10922,7 +11000,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10939,7 +11017,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10956,7 +11034,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10973,7 +11051,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10990,7 +11068,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11007,7 +11085,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11024,7 +11102,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11041,7 +11119,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11058,7 +11136,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11075,7 +11153,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11092,7 +11170,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11109,7 +11187,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11126,7 +11204,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11143,7 +11221,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11160,7 +11238,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11177,7 +11255,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11194,7 +11272,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11211,7 +11289,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11228,7 +11306,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11245,7 +11323,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11262,7 +11340,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11279,7 +11357,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11296,7 +11374,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11313,7 +11391,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11330,7 +11408,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11347,7 +11425,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11364,7 +11442,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11381,7 +11459,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11398,7 +11476,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11415,7 +11493,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11432,7 +11510,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11449,7 +11527,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11466,7 +11544,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11483,7 +11561,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11500,7 +11578,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11517,7 +11595,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11534,7 +11612,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11551,7 +11629,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11568,7 +11646,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11585,7 +11663,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11602,7 +11680,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11619,7 +11697,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11636,7 +11714,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11653,7 +11731,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11670,7 +11748,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11687,7 +11765,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11704,7 +11782,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11721,7 +11799,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11738,7 +11816,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>864</v>
+        <v>801</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11755,7 +11833,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>865</v>
+        <v>801</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11772,7 +11850,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11789,7 +11867,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11806,7 +11884,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11823,7 +11901,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11840,7 +11918,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11857,7 +11935,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11874,7 +11952,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11891,7 +11969,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11908,7 +11986,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11925,7 +12003,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11942,7 +12020,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11959,7 +12037,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11976,7 +12054,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11993,7 +12071,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12010,7 +12088,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12027,7 +12105,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12044,7 +12122,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12061,7 +12139,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12078,7 +12156,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12095,7 +12173,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12112,7 +12190,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12129,7 +12207,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12146,7 +12224,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12163,7 +12241,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>865</v>
+        <v>900</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12180,7 +12258,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12197,7 +12275,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12214,7 +12292,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12231,7 +12309,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12248,7 +12326,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12265,7 +12343,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12282,7 +12360,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12299,7 +12377,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12316,7 +12394,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12333,7 +12411,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12350,7 +12428,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12367,7 +12445,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12384,7 +12462,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12401,7 +12479,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12418,7 +12496,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12435,7 +12513,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12452,7 +12530,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12469,7 +12547,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12486,7 +12564,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12503,7 +12581,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12520,7 +12598,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12537,7 +12615,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12554,7 +12632,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12571,7 +12649,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12588,7 +12666,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12605,7 +12683,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12622,7 +12700,228 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>914</v>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560" t="s">
+        <v>4</v>
+      </c>
+      <c r="D560" t="s">
+        <v>563</v>
+      </c>
+      <c r="E560" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561" t="s">
+        <v>4</v>
+      </c>
+      <c r="D561" t="s">
+        <v>564</v>
+      </c>
+      <c r="E561" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>4</v>
+      </c>
+      <c r="C562" t="s">
+        <v>4</v>
+      </c>
+      <c r="D562" t="s">
+        <v>565</v>
+      </c>
+      <c r="E562" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563" t="s">
+        <v>4</v>
+      </c>
+      <c r="D563" t="s">
+        <v>566</v>
+      </c>
+      <c r="E563" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564" t="s">
+        <v>4</v>
+      </c>
+      <c r="D564" t="s">
+        <v>567</v>
+      </c>
+      <c r="E564" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>4</v>
+      </c>
+      <c r="C565" t="s">
+        <v>4</v>
+      </c>
+      <c r="D565" t="s">
+        <v>568</v>
+      </c>
+      <c r="E565" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>4</v>
+      </c>
+      <c r="C566" t="s">
+        <v>4</v>
+      </c>
+      <c r="D566" t="s">
+        <v>569</v>
+      </c>
+      <c r="E566" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567" t="s">
+        <v>4</v>
+      </c>
+      <c r="D567" t="s">
+        <v>570</v>
+      </c>
+      <c r="E567" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568" t="s">
+        <v>4</v>
+      </c>
+      <c r="D568" t="s">
+        <v>571</v>
+      </c>
+      <c r="E568" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>4</v>
+      </c>
+      <c r="C569" t="s">
+        <v>4</v>
+      </c>
+      <c r="D569" t="s">
+        <v>572</v>
+      </c>
+      <c r="E569" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570" t="s">
+        <v>4</v>
+      </c>
+      <c r="D570" t="s">
+        <v>573</v>
+      </c>
+      <c r="E570" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" t="s">
+        <v>4</v>
+      </c>
+      <c r="D571" t="s">
+        <v>574</v>
+      </c>
+      <c r="E571" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572" t="s">
+        <v>4</v>
+      </c>
+      <c r="D572" t="s">
+        <v>575</v>
+      </c>
+      <c r="E572" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
